--- a/experiments/Dye kinetics/8_11_22 dye kinetics/a488_10mm.xlsx
+++ b/experiments/Dye kinetics/8_11_22 dye kinetics/a488_10mm.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lencer 606 Tecan\Desktop\michael a\8_11_22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike\Documents\GitHub\AutoCIF\experiments\Dye kinetics\8_11_22 dye kinetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7364A726-CF04-4A1A-9D5D-A9CE127CE60F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634225B0-3C3E-403D-AC17-697C3C682CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="1110" windowWidth="22890" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -656,9 +668,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M830"/>
+  <dimension ref="A1:R830"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1464,7 +1478,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:18">
       <c r="A49" s="4" t="s">
         <v>63</v>
       </c>
@@ -1481,7 +1495,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:18">
       <c r="A50" s="4" t="s">
         <v>64</v>
       </c>
@@ -1497,8 +1511,24 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="O50">
+        <f ca="1">OFFSET(B$35,ROW(A1)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f ca="1">OFFSET(K$44,ROW(A1)*13,0)</f>
+        <v>7965</v>
+      </c>
+      <c r="Q50">
+        <f ca="1">OFFSET(L$44,ROW(A1)*13,0)</f>
+        <v>8712</v>
+      </c>
+      <c r="R50">
+        <f ca="1">OFFSET(M$44,ROW(A1)*13,0)</f>
+        <v>8872</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="4" t="s">
         <v>65</v>
       </c>
@@ -1538,8 +1568,24 @@
       <c r="M51" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="O51">
+        <f t="shared" ref="O51:O114" ca="1" si="0">OFFSET(B$35,ROW(A2)*13,0)</f>
+        <v>9.4130000000000003</v>
+      </c>
+      <c r="P51">
+        <f t="shared" ref="P51:P114" ca="1" si="1">OFFSET(K$44,ROW(A2)*13,0)</f>
+        <v>6406</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" ref="Q51:Q114" ca="1" si="2">OFFSET(L$44,ROW(A2)*13,0)</f>
+        <v>7048</v>
+      </c>
+      <c r="R51">
+        <f t="shared" ref="R51:R114" ca="1" si="3">OFFSET(M$44,ROW(A2)*13,0)</f>
+        <v>6943</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="4" t="s">
         <v>78</v>
       </c>
@@ -1579,8 +1625,24 @@
       <c r="M52" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="O52">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.407</v>
+      </c>
+      <c r="P52">
+        <f t="shared" ca="1" si="1"/>
+        <v>5152</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" ca="1" si="2"/>
+        <v>5672</v>
+      </c>
+      <c r="R52">
+        <f t="shared" ca="1" si="3"/>
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="4" t="s">
         <v>79</v>
       </c>
@@ -1620,8 +1682,24 @@
       <c r="M53" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="O53">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.416</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ca="1" si="1"/>
+        <v>4259</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" ca="1" si="2"/>
+        <v>4661</v>
+      </c>
+      <c r="R53">
+        <f t="shared" ca="1" si="3"/>
+        <v>4531</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="4" t="s">
         <v>80</v>
       </c>
@@ -1661,8 +1739,24 @@
       <c r="M54" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="O54">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.408999999999999</v>
+      </c>
+      <c r="P54">
+        <f t="shared" ca="1" si="1"/>
+        <v>3585</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" ca="1" si="2"/>
+        <v>3891</v>
+      </c>
+      <c r="R54">
+        <f t="shared" ca="1" si="3"/>
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="4" t="s">
         <v>81</v>
       </c>
@@ -1702,8 +1796,24 @@
       <c r="M55" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="O55">
+        <f t="shared" ca="1" si="0"/>
+        <v>49.414999999999999</v>
+      </c>
+      <c r="P55">
+        <f t="shared" ca="1" si="1"/>
+        <v>3113</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" ca="1" si="2"/>
+        <v>3289</v>
+      </c>
+      <c r="R55">
+        <f t="shared" ca="1" si="3"/>
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="4" t="s">
         <v>82</v>
       </c>
@@ -1743,8 +1853,24 @@
       <c r="M56" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="O56">
+        <f t="shared" ca="1" si="0"/>
+        <v>59.418999999999997</v>
+      </c>
+      <c r="P56">
+        <f t="shared" ca="1" si="1"/>
+        <v>2716</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" ca="1" si="2"/>
+        <v>2875</v>
+      </c>
+      <c r="R56">
+        <f t="shared" ca="1" si="3"/>
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="4" t="s">
         <v>83</v>
       </c>
@@ -1784,8 +1910,24 @@
       <c r="M57" s="1">
         <v>8872</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="O57">
+        <f t="shared" ca="1" si="0"/>
+        <v>69.41</v>
+      </c>
+      <c r="P57">
+        <f t="shared" ca="1" si="1"/>
+        <v>2357</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" ca="1" si="2"/>
+        <v>2522</v>
+      </c>
+      <c r="R57">
+        <f t="shared" ca="1" si="3"/>
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="4" t="s">
         <v>84</v>
       </c>
@@ -1825,8 +1967,24 @@
       <c r="M58" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="O58">
+        <f t="shared" ca="1" si="0"/>
+        <v>79.406999999999996</v>
+      </c>
+      <c r="P58">
+        <f t="shared" ca="1" si="1"/>
+        <v>2146</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" ca="1" si="2"/>
+        <v>2270</v>
+      </c>
+      <c r="R58">
+        <f t="shared" ca="1" si="3"/>
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="4" t="s">
         <v>85</v>
       </c>
@@ -1866,8 +2024,24 @@
       <c r="M59" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="O59">
+        <f t="shared" ca="1" si="0"/>
+        <v>89.42</v>
+      </c>
+      <c r="P59">
+        <f t="shared" ca="1" si="1"/>
+        <v>1952</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" ca="1" si="2"/>
+        <v>2049</v>
+      </c>
+      <c r="R59">
+        <f t="shared" ca="1" si="3"/>
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1879,8 +2053,24 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="O60">
+        <f t="shared" ca="1" si="0"/>
+        <v>99.403000000000006</v>
+      </c>
+      <c r="P60">
+        <f t="shared" ca="1" si="1"/>
+        <v>1764</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" ca="1" si="2"/>
+        <v>1881</v>
+      </c>
+      <c r="R60">
+        <f t="shared" ca="1" si="3"/>
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="4" t="s">
         <v>62</v>
       </c>
@@ -1896,8 +2086,24 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="O61">
+        <f t="shared" ca="1" si="0"/>
+        <v>109.41</v>
+      </c>
+      <c r="P61">
+        <f t="shared" ca="1" si="1"/>
+        <v>1646</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" ca="1" si="2"/>
+        <v>1742</v>
+      </c>
+      <c r="R61">
+        <f t="shared" ca="1" si="3"/>
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="4" t="s">
         <v>63</v>
       </c>
@@ -1913,8 +2119,24 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="O62">
+        <f t="shared" ca="1" si="0"/>
+        <v>119.413</v>
+      </c>
+      <c r="P62">
+        <f t="shared" ca="1" si="1"/>
+        <v>1496</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" ca="1" si="2"/>
+        <v>1654</v>
+      </c>
+      <c r="R62">
+        <f t="shared" ca="1" si="3"/>
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="4" t="s">
         <v>64</v>
       </c>
@@ -1930,8 +2152,24 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="O63">
+        <f t="shared" ca="1" si="0"/>
+        <v>129.40899999999999</v>
+      </c>
+      <c r="P63">
+        <f t="shared" ca="1" si="1"/>
+        <v>1477</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" ca="1" si="2"/>
+        <v>1534</v>
+      </c>
+      <c r="R63">
+        <f t="shared" ca="1" si="3"/>
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="4" t="s">
         <v>65</v>
       </c>
@@ -1971,8 +2209,24 @@
       <c r="M64" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="O64">
+        <f t="shared" ca="1" si="0"/>
+        <v>139.40899999999999</v>
+      </c>
+      <c r="P64">
+        <f t="shared" ca="1" si="1"/>
+        <v>1439</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" ca="1" si="2"/>
+        <v>1461</v>
+      </c>
+      <c r="R64">
+        <f t="shared" ca="1" si="3"/>
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="4" t="s">
         <v>78</v>
       </c>
@@ -2012,8 +2266,24 @@
       <c r="M65" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="O65">
+        <f t="shared" ca="1" si="0"/>
+        <v>149.416</v>
+      </c>
+      <c r="P65">
+        <f t="shared" ca="1" si="1"/>
+        <v>1340</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" ca="1" si="2"/>
+        <v>1349</v>
+      </c>
+      <c r="R65">
+        <f t="shared" ca="1" si="3"/>
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="4" t="s">
         <v>79</v>
       </c>
@@ -2053,8 +2323,24 @@
       <c r="M66" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="O66">
+        <f t="shared" ca="1" si="0"/>
+        <v>159.40700000000001</v>
+      </c>
+      <c r="P66">
+        <f t="shared" ca="1" si="1"/>
+        <v>1252</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" ca="1" si="2"/>
+        <v>1327</v>
+      </c>
+      <c r="R66">
+        <f t="shared" ca="1" si="3"/>
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="4" t="s">
         <v>80</v>
       </c>
@@ -2094,8 +2380,24 @@
       <c r="M67" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="O67">
+        <f t="shared" ca="1" si="0"/>
+        <v>169.41900000000001</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ca="1" si="1"/>
+        <v>1226</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ca="1" si="2"/>
+        <v>1279</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ca="1" si="3"/>
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="4" t="s">
         <v>81</v>
       </c>
@@ -2135,8 +2437,24 @@
       <c r="M68" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="O68">
+        <f t="shared" ca="1" si="0"/>
+        <v>179.40899999999999</v>
+      </c>
+      <c r="P68">
+        <f t="shared" ca="1" si="1"/>
+        <v>1150</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" ca="1" si="2"/>
+        <v>1199</v>
+      </c>
+      <c r="R68">
+        <f t="shared" ca="1" si="3"/>
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="4" t="s">
         <v>82</v>
       </c>
@@ -2176,8 +2494,24 @@
       <c r="M69" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="O69">
+        <f t="shared" ca="1" si="0"/>
+        <v>189.41399999999999</v>
+      </c>
+      <c r="P69">
+        <f t="shared" ca="1" si="1"/>
+        <v>1108</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" ca="1" si="2"/>
+        <v>1162</v>
+      </c>
+      <c r="R69">
+        <f t="shared" ca="1" si="3"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="4" t="s">
         <v>83</v>
       </c>
@@ -2217,8 +2551,24 @@
       <c r="M70" s="1">
         <v>6943</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="O70">
+        <f t="shared" ca="1" si="0"/>
+        <v>199.40700000000001</v>
+      </c>
+      <c r="P70">
+        <f t="shared" ca="1" si="1"/>
+        <v>1109</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" ca="1" si="2"/>
+        <v>1146</v>
+      </c>
+      <c r="R70">
+        <f t="shared" ca="1" si="3"/>
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="4" t="s">
         <v>84</v>
       </c>
@@ -2258,8 +2608,24 @@
       <c r="M71" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="O71">
+        <f t="shared" ca="1" si="0"/>
+        <v>209.405</v>
+      </c>
+      <c r="P71">
+        <f t="shared" ca="1" si="1"/>
+        <v>1061</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" ca="1" si="2"/>
+        <v>1124</v>
+      </c>
+      <c r="R71">
+        <f t="shared" ca="1" si="3"/>
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="4" t="s">
         <v>85</v>
       </c>
@@ -2299,8 +2665,24 @@
       <c r="M72" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="O72">
+        <f t="shared" ca="1" si="0"/>
+        <v>219.41</v>
+      </c>
+      <c r="P72">
+        <f t="shared" ca="1" si="1"/>
+        <v>1040</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" ca="1" si="2"/>
+        <v>1072</v>
+      </c>
+      <c r="R72">
+        <f t="shared" ca="1" si="3"/>
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2312,8 +2694,24 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="O73">
+        <f t="shared" ca="1" si="0"/>
+        <v>229.38900000000001</v>
+      </c>
+      <c r="P73">
+        <f t="shared" ca="1" si="1"/>
+        <v>1039</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" ca="1" si="2"/>
+        <v>1066</v>
+      </c>
+      <c r="R73">
+        <f t="shared" ca="1" si="3"/>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="4" t="s">
         <v>62</v>
       </c>
@@ -2329,8 +2727,24 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="O74">
+        <f t="shared" ca="1" si="0"/>
+        <v>239.398</v>
+      </c>
+      <c r="P74">
+        <f t="shared" ca="1" si="1"/>
+        <v>985</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" ca="1" si="2"/>
+        <v>1041</v>
+      </c>
+      <c r="R74">
+        <f t="shared" ca="1" si="3"/>
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="4" t="s">
         <v>63</v>
       </c>
@@ -2346,8 +2760,24 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="O75">
+        <f t="shared" ca="1" si="0"/>
+        <v>249.38900000000001</v>
+      </c>
+      <c r="P75">
+        <f t="shared" ca="1" si="1"/>
+        <v>978</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" ca="1" si="2"/>
+        <v>998</v>
+      </c>
+      <c r="R75">
+        <f t="shared" ca="1" si="3"/>
+        <v>982</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="4" t="s">
         <v>64</v>
       </c>
@@ -2363,8 +2793,24 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="O76">
+        <f t="shared" ca="1" si="0"/>
+        <v>259.39800000000002</v>
+      </c>
+      <c r="P76">
+        <f t="shared" ca="1" si="1"/>
+        <v>953</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" ca="1" si="2"/>
+        <v>990</v>
+      </c>
+      <c r="R76">
+        <f t="shared" ca="1" si="3"/>
+        <v>969</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="4" t="s">
         <v>65</v>
       </c>
@@ -2404,8 +2850,24 @@
       <c r="M77" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="O77">
+        <f t="shared" ca="1" si="0"/>
+        <v>269.38200000000001</v>
+      </c>
+      <c r="P77">
+        <f t="shared" ca="1" si="1"/>
+        <v>910</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" ca="1" si="2"/>
+        <v>986</v>
+      </c>
+      <c r="R77">
+        <f t="shared" ca="1" si="3"/>
+        <v>957</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
@@ -2445,8 +2907,24 @@
       <c r="M78" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="O78">
+        <f t="shared" ca="1" si="0"/>
+        <v>279.39400000000001</v>
+      </c>
+      <c r="P78">
+        <f t="shared" ca="1" si="1"/>
+        <v>931</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" ca="1" si="2"/>
+        <v>943</v>
+      </c>
+      <c r="R78">
+        <f t="shared" ca="1" si="3"/>
+        <v>964</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="4" t="s">
         <v>79</v>
       </c>
@@ -2486,8 +2964,24 @@
       <c r="M79" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="O79">
+        <f t="shared" ca="1" si="0"/>
+        <v>289.38099999999997</v>
+      </c>
+      <c r="P79">
+        <f t="shared" ca="1" si="1"/>
+        <v>914</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" ca="1" si="2"/>
+        <v>934</v>
+      </c>
+      <c r="R79">
+        <f t="shared" ca="1" si="3"/>
+        <v>914</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="4" t="s">
         <v>80</v>
       </c>
@@ -2527,8 +3021,24 @@
       <c r="M80" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="O80">
+        <f t="shared" ca="1" si="0"/>
+        <v>299.39400000000001</v>
+      </c>
+      <c r="P80">
+        <f t="shared" ca="1" si="1"/>
+        <v>878</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" ca="1" si="2"/>
+        <v>954</v>
+      </c>
+      <c r="R80">
+        <f t="shared" ca="1" si="3"/>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="4" t="s">
         <v>81</v>
       </c>
@@ -2568,8 +3078,24 @@
       <c r="M81" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="O81">
+        <f t="shared" ca="1" si="0"/>
+        <v>309.38799999999998</v>
+      </c>
+      <c r="P81">
+        <f t="shared" ca="1" si="1"/>
+        <v>895</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" ca="1" si="2"/>
+        <v>909</v>
+      </c>
+      <c r="R81">
+        <f t="shared" ca="1" si="3"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="4" t="s">
         <v>82</v>
       </c>
@@ -2609,8 +3135,24 @@
       <c r="M82" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="O82">
+        <f t="shared" ca="1" si="0"/>
+        <v>319.404</v>
+      </c>
+      <c r="P82">
+        <f t="shared" ca="1" si="1"/>
+        <v>908</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" ca="1" si="2"/>
+        <v>916</v>
+      </c>
+      <c r="R82">
+        <f t="shared" ca="1" si="3"/>
+        <v>887</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="4" t="s">
         <v>83</v>
       </c>
@@ -2650,8 +3192,24 @@
       <c r="M83" s="1">
         <v>5499</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="O83">
+        <f t="shared" ca="1" si="0"/>
+        <v>329.37200000000001</v>
+      </c>
+      <c r="P83">
+        <f t="shared" ca="1" si="1"/>
+        <v>875</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" ca="1" si="2"/>
+        <v>890</v>
+      </c>
+      <c r="R83">
+        <f t="shared" ca="1" si="3"/>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="4" t="s">
         <v>84</v>
       </c>
@@ -2691,8 +3249,24 @@
       <c r="M84" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="O84">
+        <f t="shared" ca="1" si="0"/>
+        <v>339.38099999999997</v>
+      </c>
+      <c r="P84">
+        <f t="shared" ca="1" si="1"/>
+        <v>885</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" ca="1" si="2"/>
+        <v>862</v>
+      </c>
+      <c r="R84">
+        <f t="shared" ca="1" si="3"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="4" t="s">
         <v>85</v>
       </c>
@@ -2732,8 +3306,24 @@
       <c r="M85" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="O85">
+        <f t="shared" ca="1" si="0"/>
+        <v>349.37700000000001</v>
+      </c>
+      <c r="P85">
+        <f t="shared" ca="1" si="1"/>
+        <v>872</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" ca="1" si="2"/>
+        <v>851</v>
+      </c>
+      <c r="R85">
+        <f t="shared" ca="1" si="3"/>
+        <v>861</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2745,8 +3335,24 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="O86">
+        <f t="shared" ca="1" si="0"/>
+        <v>359.38</v>
+      </c>
+      <c r="P86">
+        <f t="shared" ca="1" si="1"/>
+        <v>847</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" ca="1" si="2"/>
+        <v>880</v>
+      </c>
+      <c r="R86">
+        <f t="shared" ca="1" si="3"/>
+        <v>867</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="4" t="s">
         <v>62</v>
       </c>
@@ -2762,8 +3368,24 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="O87">
+        <f t="shared" ca="1" si="0"/>
+        <v>369.38</v>
+      </c>
+      <c r="P87">
+        <f t="shared" ca="1" si="1"/>
+        <v>852</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" ca="1" si="2"/>
+        <v>860</v>
+      </c>
+      <c r="R87">
+        <f t="shared" ca="1" si="3"/>
+        <v>859</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="4" t="s">
         <v>63</v>
       </c>
@@ -2779,8 +3401,24 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="O88">
+        <f t="shared" ca="1" si="0"/>
+        <v>379.387</v>
+      </c>
+      <c r="P88">
+        <f t="shared" ca="1" si="1"/>
+        <v>844</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" ca="1" si="2"/>
+        <v>852</v>
+      </c>
+      <c r="R88">
+        <f t="shared" ca="1" si="3"/>
+        <v>822</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="4" t="s">
         <v>64</v>
       </c>
@@ -2796,8 +3434,24 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="O89">
+        <f t="shared" ca="1" si="0"/>
+        <v>389.392</v>
+      </c>
+      <c r="P89">
+        <f t="shared" ca="1" si="1"/>
+        <v>836</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" ca="1" si="2"/>
+        <v>852</v>
+      </c>
+      <c r="R89">
+        <f t="shared" ca="1" si="3"/>
+        <v>821</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" s="4" t="s">
         <v>65</v>
       </c>
@@ -2837,8 +3491,24 @@
       <c r="M90" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="O90">
+        <f t="shared" ca="1" si="0"/>
+        <v>399.387</v>
+      </c>
+      <c r="P90">
+        <f t="shared" ca="1" si="1"/>
+        <v>846</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" ca="1" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="R90">
+        <f t="shared" ca="1" si="3"/>
+        <v>815</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" s="4" t="s">
         <v>78</v>
       </c>
@@ -2878,8 +3548,24 @@
       <c r="M91" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="O91">
+        <f t="shared" ca="1" si="0"/>
+        <v>409.38900000000001</v>
+      </c>
+      <c r="P91">
+        <f t="shared" ca="1" si="1"/>
+        <v>825</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" ca="1" si="2"/>
+        <v>846</v>
+      </c>
+      <c r="R91">
+        <f t="shared" ca="1" si="3"/>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" s="4" t="s">
         <v>79</v>
       </c>
@@ -2919,8 +3605,24 @@
       <c r="M92" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="O92">
+        <f t="shared" ca="1" si="0"/>
+        <v>419.38600000000002</v>
+      </c>
+      <c r="P92">
+        <f t="shared" ca="1" si="1"/>
+        <v>828</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" ca="1" si="2"/>
+        <v>843</v>
+      </c>
+      <c r="R92">
+        <f t="shared" ca="1" si="3"/>
+        <v>803</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="4" t="s">
         <v>80</v>
       </c>
@@ -2960,8 +3662,24 @@
       <c r="M93" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="O93">
+        <f t="shared" ca="1" si="0"/>
+        <v>429.399</v>
+      </c>
+      <c r="P93">
+        <f t="shared" ca="1" si="1"/>
+        <v>836</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" ca="1" si="2"/>
+        <v>788</v>
+      </c>
+      <c r="R93">
+        <f t="shared" ca="1" si="3"/>
+        <v>798</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" s="4" t="s">
         <v>81</v>
       </c>
@@ -3001,8 +3719,24 @@
       <c r="M94" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="O94">
+        <f t="shared" ca="1" si="0"/>
+        <v>439.39699999999999</v>
+      </c>
+      <c r="P94">
+        <f t="shared" ca="1" si="1"/>
+        <v>842</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" ca="1" si="2"/>
+        <v>816</v>
+      </c>
+      <c r="R94">
+        <f t="shared" ca="1" si="3"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" s="4" t="s">
         <v>82</v>
       </c>
@@ -3042,8 +3776,24 @@
       <c r="M95" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="O95">
+        <f t="shared" ca="1" si="0"/>
+        <v>449.399</v>
+      </c>
+      <c r="P95">
+        <f t="shared" ca="1" si="1"/>
+        <v>812</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" ca="1" si="2"/>
+        <v>822</v>
+      </c>
+      <c r="R95">
+        <f t="shared" ca="1" si="3"/>
+        <v>799</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" s="4" t="s">
         <v>83</v>
       </c>
@@ -3083,8 +3833,24 @@
       <c r="M96" s="1">
         <v>4531</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="O96">
+        <f t="shared" ca="1" si="0"/>
+        <v>459.38900000000001</v>
+      </c>
+      <c r="P96">
+        <f t="shared" ca="1" si="1"/>
+        <v>809</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" ca="1" si="2"/>
+        <v>818</v>
+      </c>
+      <c r="R96">
+        <f t="shared" ca="1" si="3"/>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" s="4" t="s">
         <v>84</v>
       </c>
@@ -3124,8 +3890,24 @@
       <c r="M97" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="O97">
+        <f t="shared" ca="1" si="0"/>
+        <v>469.40100000000001</v>
+      </c>
+      <c r="P97">
+        <f t="shared" ca="1" si="1"/>
+        <v>789</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" ca="1" si="2"/>
+        <v>801</v>
+      </c>
+      <c r="R97">
+        <f t="shared" ca="1" si="3"/>
+        <v>779</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98" s="4" t="s">
         <v>85</v>
       </c>
@@ -3165,8 +3947,24 @@
       <c r="M98" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="O98">
+        <f t="shared" ca="1" si="0"/>
+        <v>479.39</v>
+      </c>
+      <c r="P98">
+        <f t="shared" ca="1" si="1"/>
+        <v>790</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" ca="1" si="2"/>
+        <v>802</v>
+      </c>
+      <c r="R98">
+        <f t="shared" ca="1" si="3"/>
+        <v>781</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3178,8 +3976,24 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="O99">
+        <f t="shared" ca="1" si="0"/>
+        <v>489.39499999999998</v>
+      </c>
+      <c r="P99">
+        <f t="shared" ca="1" si="1"/>
+        <v>842</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" ca="1" si="2"/>
+        <v>782</v>
+      </c>
+      <c r="R99">
+        <f t="shared" ca="1" si="3"/>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100" s="4" t="s">
         <v>62</v>
       </c>
@@ -3195,8 +4009,24 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="O100">
+        <f t="shared" ca="1" si="0"/>
+        <v>499.39100000000002</v>
+      </c>
+      <c r="P100">
+        <f t="shared" ca="1" si="1"/>
+        <v>779</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" ca="1" si="2"/>
+        <v>791</v>
+      </c>
+      <c r="R100">
+        <f t="shared" ca="1" si="3"/>
+        <v>781</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101" s="4" t="s">
         <v>63</v>
       </c>
@@ -3212,8 +4042,24 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="O101">
+        <f t="shared" ca="1" si="0"/>
+        <v>509.39699999999999</v>
+      </c>
+      <c r="P101">
+        <f t="shared" ca="1" si="1"/>
+        <v>799</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" ca="1" si="2"/>
+        <v>793</v>
+      </c>
+      <c r="R101">
+        <f t="shared" ca="1" si="3"/>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102" s="4" t="s">
         <v>64</v>
       </c>
@@ -3229,8 +4075,24 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="O102">
+        <f t="shared" ca="1" si="0"/>
+        <v>519.39099999999996</v>
+      </c>
+      <c r="P102">
+        <f t="shared" ca="1" si="1"/>
+        <v>775</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" ca="1" si="2"/>
+        <v>811</v>
+      </c>
+      <c r="R102">
+        <f t="shared" ca="1" si="3"/>
+        <v>795</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103" s="4" t="s">
         <v>65</v>
       </c>
@@ -3270,8 +4132,24 @@
       <c r="M103" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="O103">
+        <f t="shared" ca="1" si="0"/>
+        <v>529.399</v>
+      </c>
+      <c r="P103">
+        <f t="shared" ca="1" si="1"/>
+        <v>764</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" ca="1" si="2"/>
+        <v>815</v>
+      </c>
+      <c r="R103">
+        <f t="shared" ca="1" si="3"/>
+        <v>786</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104" s="4" t="s">
         <v>78</v>
       </c>
@@ -3311,8 +4189,24 @@
       <c r="M104" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="O104">
+        <f t="shared" ca="1" si="0"/>
+        <v>539.39499999999998</v>
+      </c>
+      <c r="P104">
+        <f t="shared" ca="1" si="1"/>
+        <v>779</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" ca="1" si="2"/>
+        <v>776</v>
+      </c>
+      <c r="R104">
+        <f t="shared" ca="1" si="3"/>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105" s="4" t="s">
         <v>79</v>
       </c>
@@ -3352,8 +4246,24 @@
       <c r="M105" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="O105">
+        <f t="shared" ca="1" si="0"/>
+        <v>549.404</v>
+      </c>
+      <c r="P105">
+        <f t="shared" ca="1" si="1"/>
+        <v>794</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" ca="1" si="2"/>
+        <v>791</v>
+      </c>
+      <c r="R105">
+        <f t="shared" ca="1" si="3"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106" s="4" t="s">
         <v>80</v>
       </c>
@@ -3393,8 +4303,24 @@
       <c r="M106" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="O106">
+        <f t="shared" ca="1" si="0"/>
+        <v>559.39499999999998</v>
+      </c>
+      <c r="P106">
+        <f t="shared" ca="1" si="1"/>
+        <v>767</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" ca="1" si="2"/>
+        <v>763</v>
+      </c>
+      <c r="R106">
+        <f t="shared" ca="1" si="3"/>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107" s="4" t="s">
         <v>81</v>
       </c>
@@ -3434,8 +4360,24 @@
       <c r="M107" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="O107">
+        <f t="shared" ca="1" si="0"/>
+        <v>569.399</v>
+      </c>
+      <c r="P107">
+        <f t="shared" ca="1" si="1"/>
+        <v>782</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" ca="1" si="2"/>
+        <v>774</v>
+      </c>
+      <c r="R107">
+        <f t="shared" ca="1" si="3"/>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108" s="4" t="s">
         <v>82</v>
       </c>
@@ -3475,8 +4417,24 @@
       <c r="M108" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="O108">
+        <f t="shared" ca="1" si="0"/>
+        <v>579.40499999999997</v>
+      </c>
+      <c r="P108">
+        <f t="shared" ca="1" si="1"/>
+        <v>787</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" ca="1" si="2"/>
+        <v>780</v>
+      </c>
+      <c r="R108">
+        <f t="shared" ca="1" si="3"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109" s="4" t="s">
         <v>83</v>
       </c>
@@ -3516,8 +4474,24 @@
       <c r="M109" s="1">
         <v>3793</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="O109">
+        <f t="shared" ca="1" si="0"/>
+        <v>589.38699999999994</v>
+      </c>
+      <c r="P109">
+        <f t="shared" ca="1" si="1"/>
+        <v>798</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" ca="1" si="2"/>
+        <v>772</v>
+      </c>
+      <c r="R109">
+        <f t="shared" ca="1" si="3"/>
+        <v>752</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110" s="4" t="s">
         <v>84</v>
       </c>
@@ -3557,8 +4531,24 @@
       <c r="M110" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="O110">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111" s="4" t="s">
         <v>85</v>
       </c>
@@ -3598,8 +4588,24 @@
       <c r="M111" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="O111">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3611,8 +4617,24 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="O112">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113" s="4" t="s">
         <v>62</v>
       </c>
@@ -3628,8 +4650,24 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="O113">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114" s="4" t="s">
         <v>63</v>
       </c>
@@ -3645,8 +4683,24 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="O114">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115" s="4" t="s">
         <v>64</v>
       </c>
@@ -3662,8 +4716,24 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="O115">
+        <f t="shared" ref="O115:O178" ca="1" si="4">OFFSET(B$35,ROW(A66)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <f t="shared" ref="P115:P178" ca="1" si="5">OFFSET(K$44,ROW(A66)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" ref="Q115:Q178" ca="1" si="6">OFFSET(L$44,ROW(A66)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <f t="shared" ref="R115:R178" ca="1" si="7">OFFSET(M$44,ROW(A66)*13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116" s="4" t="s">
         <v>65</v>
       </c>
@@ -3703,8 +4773,24 @@
       <c r="M116" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="O116">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117" s="4" t="s">
         <v>78</v>
       </c>
@@ -3744,8 +4830,24 @@
       <c r="M117" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="O117">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118" s="4" t="s">
         <v>79</v>
       </c>
@@ -3785,8 +4887,24 @@
       <c r="M118" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="O118">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" s="4" t="s">
         <v>80</v>
       </c>
@@ -3826,8 +4944,24 @@
       <c r="M119" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="O119">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" s="4" t="s">
         <v>81</v>
       </c>
@@ -3867,8 +5001,24 @@
       <c r="M120" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="O120">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121" s="4" t="s">
         <v>82</v>
       </c>
@@ -3908,8 +5058,24 @@
       <c r="M121" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="O121">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122" s="4" t="s">
         <v>83</v>
       </c>
@@ -3949,8 +5115,24 @@
       <c r="M122" s="1">
         <v>3221</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="O122">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123" s="4" t="s">
         <v>84</v>
       </c>
@@ -3990,8 +5172,24 @@
       <c r="M123" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="O123">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" s="4" t="s">
         <v>85</v>
       </c>
@@ -4031,8 +5229,24 @@
       <c r="M124" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="O124">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4044,8 +5258,24 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="O125">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126" s="4" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +5291,24 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="O126">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127" s="4" t="s">
         <v>63</v>
       </c>
@@ -4078,8 +5324,24 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="O127">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128" s="4" t="s">
         <v>64</v>
       </c>
@@ -4095,8 +5357,24 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="O128">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129" s="4" t="s">
         <v>65</v>
       </c>
@@ -4136,8 +5414,24 @@
       <c r="M129" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="130" spans="1:13">
+      <c r="O129">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130" s="4" t="s">
         <v>78</v>
       </c>
@@ -4177,8 +5471,24 @@
       <c r="M130" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="O130">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131" s="4" t="s">
         <v>79</v>
       </c>
@@ -4218,8 +5528,24 @@
       <c r="M131" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="O131">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132" s="4" t="s">
         <v>80</v>
       </c>
@@ -4259,8 +5585,24 @@
       <c r="M132" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="O132">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133" s="4" t="s">
         <v>81</v>
       </c>
@@ -4300,8 +5642,24 @@
       <c r="M133" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="O133">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
       <c r="A134" s="4" t="s">
         <v>82</v>
       </c>
@@ -4341,8 +5699,24 @@
       <c r="M134" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="O134">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135" s="4" t="s">
         <v>83</v>
       </c>
@@ -4382,8 +5756,24 @@
       <c r="M135" s="1">
         <v>2784</v>
       </c>
-    </row>
-    <row r="136" spans="1:13">
+      <c r="O135">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136" s="4" t="s">
         <v>84</v>
       </c>
@@ -4423,8 +5813,24 @@
       <c r="M136" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="O136">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137" s="4" t="s">
         <v>85</v>
       </c>
@@ -4464,8 +5870,24 @@
       <c r="M137" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="O137">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4477,8 +5899,24 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="O138">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139" s="4" t="s">
         <v>62</v>
       </c>
@@ -4494,8 +5932,24 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
-    </row>
-    <row r="140" spans="1:13">
+      <c r="O139">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140" s="4" t="s">
         <v>63</v>
       </c>
@@ -4511,8 +5965,24 @@
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
-    </row>
-    <row r="141" spans="1:13">
+      <c r="O140">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18">
       <c r="A141" s="4" t="s">
         <v>64</v>
       </c>
@@ -4528,8 +5998,24 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
-    </row>
-    <row r="142" spans="1:13">
+      <c r="O141">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
       <c r="A142" s="4" t="s">
         <v>65</v>
       </c>
@@ -4569,8 +6055,24 @@
       <c r="M142" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="O142">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18">
       <c r="A143" s="4" t="s">
         <v>78</v>
       </c>
@@ -4610,8 +6112,24 @@
       <c r="M143" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="O143">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18">
       <c r="A144" s="4" t="s">
         <v>79</v>
       </c>
@@ -4651,8 +6169,24 @@
       <c r="M144" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="O144">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145" s="4" t="s">
         <v>80</v>
       </c>
@@ -4692,8 +6226,24 @@
       <c r="M145" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:13">
+      <c r="O145">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18">
       <c r="A146" s="4" t="s">
         <v>81</v>
       </c>
@@ -4733,8 +6283,24 @@
       <c r="M146" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:13">
+      <c r="O146">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147" s="4" t="s">
         <v>82</v>
       </c>
@@ -4774,8 +6340,24 @@
       <c r="M147" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:13">
+      <c r="O147">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" s="4" t="s">
         <v>83</v>
       </c>
@@ -4815,8 +6397,24 @@
       <c r="M148" s="1">
         <v>2436</v>
       </c>
-    </row>
-    <row r="149" spans="1:13">
+      <c r="O148">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149" s="4" t="s">
         <v>84</v>
       </c>
@@ -4856,8 +6454,24 @@
       <c r="M149" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:13">
+      <c r="O149">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150" s="4" t="s">
         <v>85</v>
       </c>
@@ -4897,8 +6511,24 @@
       <c r="M150" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:13">
+      <c r="O150">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4910,8 +6540,24 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
-    </row>
-    <row r="152" spans="1:13">
+      <c r="O151">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18">
       <c r="A152" s="4" t="s">
         <v>62</v>
       </c>
@@ -4927,8 +6573,24 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
-    </row>
-    <row r="153" spans="1:13">
+      <c r="O152">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18">
       <c r="A153" s="4" t="s">
         <v>63</v>
       </c>
@@ -4944,8 +6606,24 @@
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
-    </row>
-    <row r="154" spans="1:13">
+      <c r="O153">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18">
       <c r="A154" s="4" t="s">
         <v>64</v>
       </c>
@@ -4961,8 +6639,24 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
-    </row>
-    <row r="155" spans="1:13">
+      <c r="O154">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18">
       <c r="A155" s="4" t="s">
         <v>65</v>
       </c>
@@ -5002,8 +6696,24 @@
       <c r="M155" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="156" spans="1:13">
+      <c r="O155">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18">
       <c r="A156" s="4" t="s">
         <v>78</v>
       </c>
@@ -5043,8 +6753,24 @@
       <c r="M156" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:13">
+      <c r="O156">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18">
       <c r="A157" s="4" t="s">
         <v>79</v>
       </c>
@@ -5084,8 +6810,24 @@
       <c r="M157" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:13">
+      <c r="O157">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18">
       <c r="A158" s="4" t="s">
         <v>80</v>
       </c>
@@ -5125,8 +6867,24 @@
       <c r="M158" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:13">
+      <c r="O158">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18">
       <c r="A159" s="4" t="s">
         <v>81</v>
       </c>
@@ -5166,8 +6924,24 @@
       <c r="M159" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:13">
+      <c r="O159">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18">
       <c r="A160" s="4" t="s">
         <v>82</v>
       </c>
@@ -5207,8 +6981,24 @@
       <c r="M160" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:13">
+      <c r="O160">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18">
       <c r="A161" s="4" t="s">
         <v>83</v>
       </c>
@@ -5248,8 +7038,24 @@
       <c r="M161" s="1">
         <v>2199</v>
       </c>
-    </row>
-    <row r="162" spans="1:13">
+      <c r="O161">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18">
       <c r="A162" s="4" t="s">
         <v>84</v>
       </c>
@@ -5289,8 +7095,24 @@
       <c r="M162" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="O162">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18">
       <c r="A163" s="4" t="s">
         <v>85</v>
       </c>
@@ -5330,8 +7152,24 @@
       <c r="M163" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:13">
+      <c r="O163">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R163">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5343,8 +7181,24 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="O164">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18">
       <c r="A165" s="4" t="s">
         <v>62</v>
       </c>
@@ -5360,8 +7214,24 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="O165">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18">
       <c r="A166" s="4" t="s">
         <v>63</v>
       </c>
@@ -5377,8 +7247,24 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
-    </row>
-    <row r="167" spans="1:13">
+      <c r="O166">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18">
       <c r="A167" s="4" t="s">
         <v>64</v>
       </c>
@@ -5394,8 +7280,24 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
-    </row>
-    <row r="168" spans="1:13">
+      <c r="O167">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18">
       <c r="A168" s="4" t="s">
         <v>65</v>
       </c>
@@ -5435,8 +7337,24 @@
       <c r="M168" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="169" spans="1:13">
+      <c r="O168">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18">
       <c r="A169" s="4" t="s">
         <v>78</v>
       </c>
@@ -5476,8 +7394,24 @@
       <c r="M169" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:13">
+      <c r="O169">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18">
       <c r="A170" s="4" t="s">
         <v>79</v>
       </c>
@@ -5517,8 +7451,24 @@
       <c r="M170" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:13">
+      <c r="O170">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18">
       <c r="A171" s="4" t="s">
         <v>80</v>
       </c>
@@ -5558,8 +7508,24 @@
       <c r="M171" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:13">
+      <c r="O171">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P171">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18">
       <c r="A172" s="4" t="s">
         <v>81</v>
       </c>
@@ -5599,8 +7565,24 @@
       <c r="M172" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:13">
+      <c r="O172">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P172">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R172">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18">
       <c r="A173" s="4" t="s">
         <v>82</v>
       </c>
@@ -5640,8 +7622,24 @@
       <c r="M173" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:13">
+      <c r="O173">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18">
       <c r="A174" s="4" t="s">
         <v>83</v>
       </c>
@@ -5681,8 +7679,24 @@
       <c r="M174" s="1">
         <v>1998</v>
       </c>
-    </row>
-    <row r="175" spans="1:13">
+      <c r="O174">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18">
       <c r="A175" s="4" t="s">
         <v>84</v>
       </c>
@@ -5722,8 +7736,24 @@
       <c r="M175" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:13">
+      <c r="O175">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18">
       <c r="A176" s="4" t="s">
         <v>85</v>
       </c>
@@ -5763,8 +7793,24 @@
       <c r="M176" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:13">
+      <c r="O176">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P176">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R176">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5776,8 +7822,24 @@
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
-    </row>
-    <row r="178" spans="1:13">
+      <c r="O177">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18">
       <c r="A178" s="4" t="s">
         <v>62</v>
       </c>
@@ -5793,8 +7855,24 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
-    </row>
-    <row r="179" spans="1:13">
+      <c r="O178">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P178">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18">
       <c r="A179" s="4" t="s">
         <v>63</v>
       </c>
@@ -5810,8 +7888,24 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
-    </row>
-    <row r="180" spans="1:13">
+      <c r="O179">
+        <f t="shared" ref="O179:O230" ca="1" si="8">OFFSET(B$35,ROW(A130)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <f t="shared" ref="P179:P230" ca="1" si="9">OFFSET(K$44,ROW(A130)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <f t="shared" ref="Q179:Q230" ca="1" si="10">OFFSET(L$44,ROW(A130)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <f t="shared" ref="R179:R230" ca="1" si="11">OFFSET(M$44,ROW(A130)*13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18">
       <c r="A180" s="4" t="s">
         <v>64</v>
       </c>
@@ -5827,8 +7921,24 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
-    </row>
-    <row r="181" spans="1:13">
+      <c r="O180">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P180">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18">
       <c r="A181" s="4" t="s">
         <v>65</v>
       </c>
@@ -5868,8 +7978,24 @@
       <c r="M181" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="182" spans="1:13">
+      <c r="O181">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18">
       <c r="A182" s="4" t="s">
         <v>78</v>
       </c>
@@ -5909,8 +8035,24 @@
       <c r="M182" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:13">
+      <c r="O182">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18">
       <c r="A183" s="4" t="s">
         <v>79</v>
       </c>
@@ -5950,8 +8092,24 @@
       <c r="M183" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:13">
+      <c r="O183">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P183">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18">
       <c r="A184" s="4" t="s">
         <v>80</v>
       </c>
@@ -5991,8 +8149,24 @@
       <c r="M184" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:13">
+      <c r="O184">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P184">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q184">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18">
       <c r="A185" s="4" t="s">
         <v>81</v>
       </c>
@@ -6032,8 +8206,24 @@
       <c r="M185" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:13">
+      <c r="O185">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P185">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18">
       <c r="A186" s="4" t="s">
         <v>82</v>
       </c>
@@ -6073,8 +8263,24 @@
       <c r="M186" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:13">
+      <c r="O186">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P186">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18">
       <c r="A187" s="4" t="s">
         <v>83</v>
       </c>
@@ -6114,8 +8320,24 @@
       <c r="M187" s="1">
         <v>1770</v>
       </c>
-    </row>
-    <row r="188" spans="1:13">
+      <c r="O187">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P187">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R187">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18">
       <c r="A188" s="4" t="s">
         <v>84</v>
       </c>
@@ -6155,8 +8377,24 @@
       <c r="M188" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:13">
+      <c r="O188">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P188">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q188">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R188">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18">
       <c r="A189" s="4" t="s">
         <v>85</v>
       </c>
@@ -6196,8 +8434,24 @@
       <c r="M189" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:13">
+      <c r="O189">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P189">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q189">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6209,8 +8463,24 @@
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
-    </row>
-    <row r="191" spans="1:13">
+      <c r="O190">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P190">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q190">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R190">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18">
       <c r="A191" s="4" t="s">
         <v>62</v>
       </c>
@@ -6226,8 +8496,24 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
-    </row>
-    <row r="192" spans="1:13">
+      <c r="O191">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P191">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q191">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18">
       <c r="A192" s="4" t="s">
         <v>63</v>
       </c>
@@ -6243,8 +8529,24 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
-    </row>
-    <row r="193" spans="1:13">
+      <c r="O192">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q192">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18">
       <c r="A193" s="4" t="s">
         <v>64</v>
       </c>
@@ -6260,8 +8562,24 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
-    </row>
-    <row r="194" spans="1:13">
+      <c r="O193">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q193">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18">
       <c r="A194" s="4" t="s">
         <v>65</v>
       </c>
@@ -6301,8 +8619,24 @@
       <c r="M194" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="195" spans="1:13">
+      <c r="O194">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q194">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R194">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18">
       <c r="A195" s="4" t="s">
         <v>78</v>
       </c>
@@ -6342,8 +8676,24 @@
       <c r="M195" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:13">
+      <c r="O195">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q195">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R195">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18">
       <c r="A196" s="4" t="s">
         <v>79</v>
       </c>
@@ -6383,8 +8733,24 @@
       <c r="M196" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:13">
+      <c r="O196">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R196">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18">
       <c r="A197" s="4" t="s">
         <v>80</v>
       </c>
@@ -6424,8 +8790,24 @@
       <c r="M197" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:13">
+      <c r="O197">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18">
       <c r="A198" s="4" t="s">
         <v>81</v>
       </c>
@@ -6465,8 +8847,24 @@
       <c r="M198" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:13">
+      <c r="O198">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P198">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q198">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R198">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18">
       <c r="A199" s="4" t="s">
         <v>82</v>
       </c>
@@ -6506,8 +8904,24 @@
       <c r="M199" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:13">
+      <c r="O199">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R199">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18">
       <c r="A200" s="4" t="s">
         <v>83</v>
       </c>
@@ -6547,8 +8961,24 @@
       <c r="M200" s="1">
         <v>1688</v>
       </c>
-    </row>
-    <row r="201" spans="1:13">
+      <c r="O200">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18">
       <c r="A201" s="4" t="s">
         <v>84</v>
       </c>
@@ -6588,8 +9018,24 @@
       <c r="M201" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:13">
+      <c r="O201">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q201">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R201">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18">
       <c r="A202" s="4" t="s">
         <v>85</v>
       </c>
@@ -6629,8 +9075,24 @@
       <c r="M202" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:13">
+      <c r="O202">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q202">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6642,8 +9104,24 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
-    </row>
-    <row r="204" spans="1:13">
+      <c r="O203">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q203">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R203">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18">
       <c r="A204" s="4" t="s">
         <v>62</v>
       </c>
@@ -6659,8 +9137,24 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
-    </row>
-    <row r="205" spans="1:13">
+      <c r="O204">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P204">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q204">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18">
       <c r="A205" s="4" t="s">
         <v>63</v>
       </c>
@@ -6676,8 +9170,24 @@
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
-    </row>
-    <row r="206" spans="1:13">
+      <c r="O205">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q205">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18">
       <c r="A206" s="4" t="s">
         <v>64</v>
       </c>
@@ -6693,8 +9203,24 @@
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
-    </row>
-    <row r="207" spans="1:13">
+      <c r="O206">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q206">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R206">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18">
       <c r="A207" s="4" t="s">
         <v>65</v>
       </c>
@@ -6734,8 +9260,24 @@
       <c r="M207" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="208" spans="1:13">
+      <c r="O207">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P207">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q207">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R207">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18">
       <c r="A208" s="4" t="s">
         <v>78</v>
       </c>
@@ -6775,8 +9317,24 @@
       <c r="M208" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:13">
+      <c r="O208">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P208">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q208">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18">
       <c r="A209" s="4" t="s">
         <v>79</v>
       </c>
@@ -6816,8 +9374,24 @@
       <c r="M209" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:13">
+      <c r="O209">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P209">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q209">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R209">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18">
       <c r="A210" s="4" t="s">
         <v>80</v>
       </c>
@@ -6857,8 +9431,24 @@
       <c r="M210" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:13">
+      <c r="O210">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P210">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q210">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18">
       <c r="A211" s="4" t="s">
         <v>81</v>
       </c>
@@ -6898,8 +9488,24 @@
       <c r="M211" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:13">
+      <c r="O211">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P211">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q211">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R211">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18">
       <c r="A212" s="4" t="s">
         <v>82</v>
       </c>
@@ -6939,8 +9545,24 @@
       <c r="M212" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:13">
+      <c r="O212">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P212">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q212">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18">
       <c r="A213" s="4" t="s">
         <v>83</v>
       </c>
@@ -6980,8 +9602,24 @@
       <c r="M213" s="1">
         <v>1551</v>
       </c>
-    </row>
-    <row r="214" spans="1:13">
+      <c r="O213">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P213">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q213">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18">
       <c r="A214" s="4" t="s">
         <v>84</v>
       </c>
@@ -7021,8 +9659,24 @@
       <c r="M214" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:13">
+      <c r="O214">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P214">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q214">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18">
       <c r="A215" s="4" t="s">
         <v>85</v>
       </c>
@@ -7062,8 +9716,24 @@
       <c r="M215" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:13">
+      <c r="O215">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P215">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7075,8 +9745,24 @@
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
-    </row>
-    <row r="217" spans="1:13">
+      <c r="O216">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P216">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q216">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18">
       <c r="A217" s="4" t="s">
         <v>62</v>
       </c>
@@ -7092,8 +9778,24 @@
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
-    </row>
-    <row r="218" spans="1:13">
+      <c r="O217">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P217">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q217">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R217">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18">
       <c r="A218" s="4" t="s">
         <v>63</v>
       </c>
@@ -7109,8 +9811,24 @@
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
-    </row>
-    <row r="219" spans="1:13">
+      <c r="O218">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P218">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q218">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R218">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18">
       <c r="A219" s="4" t="s">
         <v>64</v>
       </c>
@@ -7126,8 +9844,24 @@
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
-    </row>
-    <row r="220" spans="1:13">
+      <c r="O219">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P219">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q219">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18">
       <c r="A220" s="4" t="s">
         <v>65</v>
       </c>
@@ -7167,8 +9901,24 @@
       <c r="M220" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="221" spans="1:13">
+      <c r="O220">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P220">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q220">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R220">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18">
       <c r="A221" s="4" t="s">
         <v>78</v>
       </c>
@@ -7208,8 +9958,24 @@
       <c r="M221" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:13">
+      <c r="O221">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P221">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q221">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R221">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18">
       <c r="A222" s="4" t="s">
         <v>79</v>
       </c>
@@ -7249,8 +10015,24 @@
       <c r="M222" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:13">
+      <c r="O222">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18">
       <c r="A223" s="4" t="s">
         <v>80</v>
       </c>
@@ -7290,8 +10072,24 @@
       <c r="M223" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:13">
+      <c r="O223">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18">
       <c r="A224" s="4" t="s">
         <v>81</v>
       </c>
@@ -7331,8 +10129,24 @@
       <c r="M224" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:13">
+      <c r="O224">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18">
       <c r="A225" s="4" t="s">
         <v>82</v>
       </c>
@@ -7372,8 +10186,24 @@
       <c r="M225" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:13">
+      <c r="O225">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18">
       <c r="A226" s="4" t="s">
         <v>83</v>
       </c>
@@ -7413,8 +10243,24 @@
       <c r="M226" s="1">
         <v>1489</v>
       </c>
-    </row>
-    <row r="227" spans="1:13">
+      <c r="O226">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18">
       <c r="A227" s="4" t="s">
         <v>84</v>
       </c>
@@ -7454,8 +10300,24 @@
       <c r="M227" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:13">
+      <c r="O227">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18">
       <c r="A228" s="4" t="s">
         <v>85</v>
       </c>
@@ -7495,8 +10357,24 @@
       <c r="M228" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:13">
+      <c r="O228">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7508,8 +10386,24 @@
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
-    </row>
-    <row r="230" spans="1:13">
+      <c r="O229">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18">
       <c r="A230" s="4" t="s">
         <v>62</v>
       </c>
@@ -7525,8 +10419,24 @@
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
-    </row>
-    <row r="231" spans="1:13">
+      <c r="O230">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18">
       <c r="A231" s="4" t="s">
         <v>63</v>
       </c>
@@ -7543,7 +10453,7 @@
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:18">
       <c r="A232" s="4" t="s">
         <v>64</v>
       </c>
@@ -7560,7 +10470,7 @@
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:18">
       <c r="A233" s="4" t="s">
         <v>65</v>
       </c>
@@ -7601,7 +10511,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:18">
       <c r="A234" s="4" t="s">
         <v>78</v>
       </c>
@@ -7642,7 +10552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:18">
       <c r="A235" s="4" t="s">
         <v>79</v>
       </c>
@@ -7683,7 +10593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:18">
       <c r="A236" s="4" t="s">
         <v>80</v>
       </c>
@@ -7724,7 +10634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:18">
       <c r="A237" s="4" t="s">
         <v>81</v>
       </c>
@@ -7765,7 +10675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:18">
       <c r="A238" s="4" t="s">
         <v>82</v>
       </c>
@@ -7806,7 +10716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:18">
       <c r="A239" s="4" t="s">
         <v>83</v>
       </c>
@@ -7847,7 +10757,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:18">
       <c r="A240" s="4" t="s">
         <v>84</v>
       </c>
